--- a/data/trans_orig/IP07A28_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A28_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2C22E48-D48A-46AD-8465-660786D8FB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{971332F4-FDDF-4A37-A0AD-2758FC12A911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{96B6DF33-2340-41D2-8932-4ABC9597764E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{89808DF7-E169-4586-A4F1-2E288675642A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,27 +68,213 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
     <t>6,44%</t>
   </si>
   <si>
@@ -116,33 +302,6 @@
     <t>8,14%</t>
   </si>
   <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
     <t>1,33%</t>
   </si>
   <si>
@@ -158,9 +317,6 @@
     <t>1,02%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
     <t>1,78%</t>
   </si>
   <si>
@@ -170,33 +326,6 @@
     <t>3,05%</t>
   </si>
   <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
     <t>2,32%</t>
   </si>
   <si>
@@ -224,133 +353,58 @@
     <t>4,59%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
   </si>
   <si>
     <t>6,06%</t>
@@ -380,33 +434,6 @@
     <t>7,69%</t>
   </si>
   <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
     <t>0,53%</t>
   </si>
   <si>
@@ -426,33 +453,6 @@
   </si>
   <si>
     <t>2,74%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
   </si>
   <si>
     <t>1,36%</t>
@@ -865,7 +865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A191631-32B7-40B5-AD3D-156ABC82C5E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F1B34A-581E-4EE1-9413-506E757D568B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1255,10 +1255,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="D10" s="7">
-        <v>22602</v>
+        <v>46939</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1270,10 +1270,10 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="I10" s="7">
-        <v>16484</v>
+        <v>43665</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
@@ -1285,10 +1285,10 @@
         <v>22</v>
       </c>
       <c r="M10" s="7">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="N10" s="7">
-        <v>39086</v>
+        <v>90604</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>23</v>
@@ -1306,10 +1306,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>61756</v>
+        <v>14155</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>26</v>
@@ -1321,10 +1321,10 @@
         <v>28</v>
       </c>
       <c r="H11" s="7">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="I11" s="7">
-        <v>45243</v>
+        <v>13621</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>29</v>
@@ -1336,10 +1336,10 @@
         <v>31</v>
       </c>
       <c r="M11" s="7">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="N11" s="7">
-        <v>106999</v>
+        <v>27776</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>32</v>
@@ -1357,10 +1357,10 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>4680</v>
+        <v>2786</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>35</v>
@@ -1372,10 +1372,10 @@
         <v>37</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>6896</v>
+        <v>1963</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>38</v>
@@ -1387,10 +1387,10 @@
         <v>40</v>
       </c>
       <c r="M12" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N12" s="7">
-        <v>11576</v>
+        <v>4749</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>41</v>
@@ -1408,10 +1408,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>253949</v>
+        <v>888</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>44</v>
@@ -1423,34 +1423,34 @@
         <v>46</v>
       </c>
       <c r="H13" s="7">
-        <v>282</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>216507</v>
+        <v>612</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>47</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1500</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="7">
-        <v>578</v>
-      </c>
-      <c r="N13" s="7">
-        <v>470455</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,49 +1459,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>8151</v>
+        <v>2830</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2591</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="7">
-        <v>16</v>
-      </c>
-      <c r="I14" s="7">
-        <v>12854</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>6</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5421</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="M14" s="7">
-        <v>27</v>
-      </c>
-      <c r="N14" s="7">
-        <v>21005</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,102 +1510,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>409</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>351138</v>
+        <v>67597</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>297985</v>
+        <v>62453</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>802</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>649122</v>
+        <v>130050</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>296</v>
       </c>
       <c r="D16" s="7">
-        <v>2786</v>
+        <v>253949</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="7">
+        <v>282</v>
+      </c>
+      <c r="I16" s="7">
+        <v>216507</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H16" s="7">
-        <v>3</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1963</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>578</v>
+      </c>
+      <c r="N16" s="7">
+        <v>470455</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="M16" s="7">
-        <v>6</v>
-      </c>
-      <c r="N16" s="7">
-        <v>4749</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1614,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D17" s="7">
-        <v>14155</v>
+        <v>61756</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="7">
+        <v>64</v>
+      </c>
+      <c r="I17" s="7">
+        <v>45243</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H17" s="7">
-        <v>17</v>
-      </c>
-      <c r="I17" s="7">
-        <v>13621</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>135</v>
+      </c>
+      <c r="N17" s="7">
+        <v>106999</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="M17" s="7">
-        <v>34</v>
-      </c>
-      <c r="N17" s="7">
-        <v>27776</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,49 +1665,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>888</v>
+        <v>22602</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" s="7">
+        <v>22</v>
+      </c>
+      <c r="I18" s="7">
+        <v>16484</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <v>612</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>83</v>
       </c>
       <c r="L18" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="7">
+        <v>46</v>
+      </c>
+      <c r="N18" s="7">
+        <v>39086</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="M18" s="7">
-        <v>2</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1500</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,10 +1716,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D19" s="7">
-        <v>46939</v>
+        <v>4680</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>88</v>
@@ -1731,10 +1731,10 @@
         <v>90</v>
       </c>
       <c r="H19" s="7">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="I19" s="7">
-        <v>43665</v>
+        <v>6896</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>91</v>
@@ -1743,22 +1743,22 @@
         <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="7">
+        <v>16</v>
+      </c>
+      <c r="N19" s="7">
+        <v>11576</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="7">
-        <v>114</v>
-      </c>
-      <c r="N19" s="7">
-        <v>90604</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,40 +1767,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7">
-        <v>2830</v>
+        <v>8151</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>16</v>
+      </c>
+      <c r="I20" s="7">
+        <v>12854</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H20" s="7">
-        <v>3</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2591</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>101</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="N20" s="7">
-        <v>5421</v>
+        <v>21005</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>102</v>
@@ -1818,49 +1818,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>409</v>
       </c>
       <c r="D21" s="7">
-        <v>67597</v>
+        <v>351138</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="I21" s="7">
-        <v>62453</v>
+        <v>297985</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>802</v>
       </c>
       <c r="N21" s="7">
-        <v>130050</v>
+        <v>649122</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,10 +1871,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>27</v>
+        <v>352</v>
       </c>
       <c r="D22" s="7">
-        <v>25388</v>
+        <v>300887</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>105</v>
@@ -1886,10 +1886,10 @@
         <v>107</v>
       </c>
       <c r="H22" s="7">
-        <v>25</v>
+        <v>340</v>
       </c>
       <c r="I22" s="7">
-        <v>18447</v>
+        <v>260172</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>108</v>
@@ -1901,10 +1901,10 @@
         <v>110</v>
       </c>
       <c r="M22" s="7">
-        <v>52</v>
+        <v>692</v>
       </c>
       <c r="N22" s="7">
-        <v>43835</v>
+        <v>561059</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>111</v>
@@ -1973,49 +1973,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D24" s="7">
-        <v>5568</v>
+        <v>25388</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>35</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I24" s="7">
-        <v>7508</v>
+        <v>18447</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M24" s="7">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="N24" s="7">
-        <v>13077</v>
+        <v>43835</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,40 +2024,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>352</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>300887</v>
+        <v>5568</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7">
-        <v>340</v>
+        <v>10</v>
       </c>
       <c r="I25" s="7">
-        <v>260172</v>
+        <v>7508</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>134</v>
+        <v>47</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>135</v>
       </c>
       <c r="M25" s="7">
-        <v>692</v>
+        <v>18</v>
       </c>
       <c r="N25" s="7">
-        <v>561059</v>
+        <v>13077</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>136</v>
@@ -2081,7 +2081,7 @@
         <v>10981</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>139</v>
@@ -2096,7 +2096,7 @@
         <v>15446</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>141</v>
@@ -2132,13 +2132,13 @@
         <v>418734</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>475</v>
@@ -2147,13 +2147,13 @@
         <v>360438</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>964</v>
@@ -2162,13 +2162,13 @@
         <v>779172</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A28_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A28_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{971332F4-FDDF-4A37-A0AD-2758FC12A911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4528C076-D152-4C2E-B9E4-21A731664431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{89808DF7-E169-4586-A4F1-2E288675642A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A49E91D-AC7B-4170-8F08-99D8359846AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="153">
   <si>
     <t>Menores según frecuencia de estar demasiado cansado para disfrutar de las cosas que le gustan en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -65,310 +65,424 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
   </si>
   <si>
     <t>66,75%</t>
   </si>
   <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>76,04%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
   </si>
   <si>
     <t>72,01%</t>
@@ -377,103 +491,10 @@
     <t>68,86%</t>
   </si>
   <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -484,7 +505,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -580,39 +601,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -664,7 +685,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -775,13 +796,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -790,6 +804,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -854,19 +875,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F1B34A-581E-4EE1-9413-506E757D568B}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85BE72B-799B-44FD-B4B8-EFB9AE589196}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1255,49 +1296,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>56</v>
-      </c>
-      <c r="D10" s="7">
-        <v>46939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>58</v>
-      </c>
-      <c r="I10" s="7">
-        <v>43665</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>114</v>
-      </c>
-      <c r="N10" s="7">
-        <v>90604</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1306,49 +1341,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
-      </c>
-      <c r="D11" s="7">
-        <v>14155</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13621</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>34</v>
-      </c>
-      <c r="N11" s="7">
-        <v>27776</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1357,49 +1386,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
-        <v>2786</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>3</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1963</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>6</v>
-      </c>
-      <c r="N12" s="7">
-        <v>4749</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1408,49 +1431,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>612</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1500</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,49 +1476,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2830</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2591</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5421</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,102 +1521,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
-      </c>
-      <c r="D15" s="7">
-        <v>67597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>62453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>130050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>296</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>253949</v>
+        <v>6194</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>282</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>216507</v>
+        <v>7323</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>578</v>
+        <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>470455</v>
+        <v>13517</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1619,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>61756</v>
+        <v>3870</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>45243</v>
+        <v>3425</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>106999</v>
+        <v>7295</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>76</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,49 +1670,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>22602</v>
+        <v>6541</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I18" s="7">
-        <v>16484</v>
+        <v>5987</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>39086</v>
+        <v>12528</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,49 +1721,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="D19" s="7">
-        <v>4680</v>
+        <v>28725</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I19" s="7">
-        <v>6896</v>
+        <v>22424</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="N19" s="7">
-        <v>11576</v>
+        <v>51149</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,49 +1772,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="D20" s="7">
-        <v>8151</v>
+        <v>118309</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>16</v>
+        <v>124</v>
       </c>
       <c r="I20" s="7">
-        <v>12854</v>
+        <v>93813</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="M20" s="7">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="N20" s="7">
-        <v>21005</v>
+        <v>212122</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,102 +1823,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>409</v>
+        <v>195</v>
       </c>
       <c r="D21" s="7">
-        <v>351138</v>
+        <v>163639</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H21" s="7">
-        <v>393</v>
+        <v>176</v>
       </c>
       <c r="I21" s="7">
-        <v>297985</v>
+        <v>132973</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M21" s="7">
-        <v>802</v>
+        <v>371</v>
       </c>
       <c r="N21" s="7">
-        <v>649122</v>
+        <v>296612</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>352</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>300887</v>
+        <v>4786</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
-        <v>340</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>260172</v>
+        <v>8123</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="M22" s="7">
-        <v>692</v>
+        <v>17</v>
       </c>
       <c r="N22" s="7">
-        <v>561059</v>
+        <v>12909</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,49 +1927,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="D23" s="7">
-        <v>75911</v>
+        <v>1698</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="H23" s="7">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="I23" s="7">
-        <v>58864</v>
+        <v>4083</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="N23" s="7">
-        <v>134775</v>
+        <v>5782</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,49 +1978,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D24" s="7">
-        <v>25388</v>
+        <v>18847</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="H24" s="7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I24" s="7">
-        <v>18447</v>
+        <v>12460</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N24" s="7">
-        <v>43835</v>
+        <v>31307</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,49 +2029,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D25" s="7">
-        <v>5568</v>
+        <v>47186</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="H25" s="7">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="I25" s="7">
-        <v>7508</v>
+        <v>36440</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="M25" s="7">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="N25" s="7">
-        <v>13077</v>
+        <v>83626</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2075,49 +2080,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="D26" s="7">
-        <v>10981</v>
+        <v>182579</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="H26" s="7">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="I26" s="7">
-        <v>15446</v>
+        <v>166359</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="M26" s="7">
-        <v>33</v>
+        <v>427</v>
       </c>
       <c r="N26" s="7">
-        <v>26426</v>
+        <v>348938</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,55 +2131,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>294</v>
+      </c>
+      <c r="D27" s="7">
+        <v>255096</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="7">
+        <v>299</v>
+      </c>
+      <c r="I27" s="7">
+        <v>227465</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M27" s="7">
+        <v>593</v>
+      </c>
+      <c r="N27" s="7">
+        <v>482561</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7">
+        <v>10981</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="7">
+        <v>19</v>
+      </c>
+      <c r="I28" s="7">
+        <v>15446</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M28" s="7">
+        <v>33</v>
+      </c>
+      <c r="N28" s="7">
+        <v>26426</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>8</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5568</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="7">
+        <v>10</v>
+      </c>
+      <c r="I29" s="7">
+        <v>7508</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" s="7">
+        <v>18</v>
+      </c>
+      <c r="N29" s="7">
+        <v>13077</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>27</v>
+      </c>
+      <c r="D30" s="7">
+        <v>25388</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="7">
+        <v>25</v>
+      </c>
+      <c r="I30" s="7">
+        <v>18447</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M30" s="7">
+        <v>52</v>
+      </c>
+      <c r="N30" s="7">
+        <v>43835</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>88</v>
+      </c>
+      <c r="D31" s="7">
+        <v>75911</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" s="7">
+        <v>81</v>
+      </c>
+      <c r="I31" s="7">
+        <v>58864</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M31" s="7">
+        <v>169</v>
+      </c>
+      <c r="N31" s="7">
+        <v>134775</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>352</v>
+      </c>
+      <c r="D32" s="7">
+        <v>300887</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H32" s="7">
+        <v>340</v>
+      </c>
+      <c r="I32" s="7">
+        <v>260172</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M32" s="7">
+        <v>692</v>
+      </c>
+      <c r="N32" s="7">
+        <v>561059</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>489</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>418734</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="7">
         <v>475</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>360438</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M33" s="7">
         <v>964</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>779172</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A28_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A28_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4528C076-D152-4C2E-B9E4-21A731664431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{651DB66C-1634-4C2A-B611-E7A5A7E9E26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A49E91D-AC7B-4170-8F08-99D8359846AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3178887F-CCE5-4B37-8F84-1D433CD089FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="151">
   <si>
     <t>Menores según frecuencia de estar demasiado cansado para disfrutar de las cosas que le gustan en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -95,28 +95,28 @@
     <t>3,79%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>5,51%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
   </si>
   <si>
     <t>2,36%</t>
@@ -125,106 +125,103 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>17,55%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
   </si>
   <si>
     <t>16,86%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>17,24%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
   </si>
   <si>
     <t>72,3%</t>
   </si>
   <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
   </si>
   <si>
     <t>70,55%</t>
   </si>
   <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>71,52%</t>
   </si>
   <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -233,25 +230,25 @@
     <t>12-15</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>3,57%</t>
   </si>
   <si>
-    <t>6,37%</t>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,47%</t>
   </si>
   <si>
     <t>4,23%</t>
@@ -263,40 +260,40 @@
     <t>0,06%</t>
   </si>
   <si>
-    <t>2,03%</t>
+    <t>2,3%</t>
   </si>
   <si>
     <t>1,8%</t>
   </si>
   <si>
-    <t>4,72%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
   </si>
   <si>
     <t>6,49%</t>
@@ -305,193 +302,190 @@
     <t>4,54%</t>
   </si>
   <si>
-    <t>9,14%</t>
+    <t>9,28%</t>
   </si>
   <si>
     <t>18,5%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>16,02%</t>
   </si>
   <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
   </si>
   <si>
     <t>71,57%</t>
   </si>
   <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
   </si>
   <si>
     <t>73,14%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
   </si>
   <si>
     <t>72,31%</t>
   </si>
   <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>4,29%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
   </si>
   <si>
     <t>1,68%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
   </si>
   <si>
     <t>5,12%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
   </si>
   <si>
     <t>16,33%</t>
   </si>
   <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
   </si>
   <si>
     <t>71,86%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
   </si>
   <si>
     <t>72,18%</t>
   </si>
   <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
   </si>
   <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -906,7 +900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C85BE72B-799B-44FD-B4B8-EFB9AE589196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0081655-D52A-45CA-8575-E702A028763B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1640,13 +1634,13 @@
         <v>3425</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -1655,13 +1649,13 @@
         <v>7295</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1676,13 +1670,13 @@
         <v>6541</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -1691,13 +1685,13 @@
         <v>5987</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -1706,13 +1700,13 @@
         <v>12528</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1727,13 +1721,13 @@
         <v>28725</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H19" s="7">
         <v>30</v>
@@ -1742,13 +1736,13 @@
         <v>22424</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M19" s="7">
         <v>64</v>
@@ -1757,13 +1751,13 @@
         <v>51149</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,13 +1772,13 @@
         <v>118309</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H20" s="7">
         <v>124</v>
@@ -1793,13 +1787,13 @@
         <v>93813</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="M20" s="7">
         <v>265</v>
@@ -1808,13 +1802,13 @@
         <v>212122</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1829,13 +1823,13 @@
         <v>163639</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="7">
         <v>176</v>
@@ -1844,13 +1838,13 @@
         <v>132973</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="7">
         <v>371</v>
@@ -1859,18 +1853,18 @@
         <v>296612</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1882,13 +1876,13 @@
         <v>4786</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -1897,13 +1891,13 @@
         <v>8123</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -1912,13 +1906,13 @@
         <v>12909</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,13 +1927,13 @@
         <v>1698</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -1948,10 +1942,10 @@
         <v>4083</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>77</v>
@@ -1984,13 +1978,13 @@
         <v>18847</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H24" s="7">
         <v>17</v>
@@ -1999,13 +1993,13 @@
         <v>12460</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>36</v>
@@ -2014,13 +2008,13 @@
         <v>31307</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,13 +2029,13 @@
         <v>47186</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H25" s="7">
         <v>51</v>
@@ -2050,13 +2044,13 @@
         <v>36440</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>105</v>
@@ -2065,13 +2059,13 @@
         <v>83626</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2080,13 @@
         <v>182579</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H26" s="7">
         <v>216</v>
@@ -2101,13 +2095,13 @@
         <v>166359</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M26" s="7">
         <v>427</v>
@@ -2116,13 +2110,13 @@
         <v>348938</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2131,13 @@
         <v>255096</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H27" s="7">
         <v>299</v>
@@ -2152,13 +2146,13 @@
         <v>227465</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="7">
         <v>593</v>
@@ -2167,13 +2161,13 @@
         <v>482561</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,13 +2184,13 @@
         <v>10981</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H28" s="7">
         <v>19</v>
@@ -2205,13 +2199,13 @@
         <v>15446</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M28" s="7">
         <v>33</v>
@@ -2220,13 +2214,13 @@
         <v>26426</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,13 +2235,13 @@
         <v>5568</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -2256,13 +2250,13 @@
         <v>7508</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -2271,13 +2265,13 @@
         <v>13077</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2286,13 @@
         <v>25388</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H30" s="7">
         <v>25</v>
@@ -2307,13 +2301,13 @@
         <v>18447</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M30" s="7">
         <v>52</v>
@@ -2322,13 +2316,13 @@
         <v>43835</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>81</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2337,13 @@
         <v>75911</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H31" s="7">
         <v>81</v>
@@ -2358,13 +2352,13 @@
         <v>58864</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M31" s="7">
         <v>169</v>
@@ -2373,13 +2367,13 @@
         <v>134775</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2394,13 +2388,13 @@
         <v>300887</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H32" s="7">
         <v>340</v>
@@ -2409,13 +2403,13 @@
         <v>260172</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M32" s="7">
         <v>692</v>
@@ -2424,13 +2418,13 @@
         <v>561059</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2439,13 @@
         <v>418734</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="7">
         <v>475</v>
@@ -2460,13 +2454,13 @@
         <v>360438</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M33" s="7">
         <v>964</v>
@@ -2475,18 +2469,18 @@
         <v>779172</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A28_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A28_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{651DB66C-1634-4C2A-B611-E7A5A7E9E26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F67AAAB4-D920-472C-AF44-B1609A00922A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3178887F-CCE5-4B37-8F84-1D433CD089FC}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{727C3440-8D7A-439F-AC50-33E2D235D64C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="151">
-  <si>
-    <t>Menores según frecuencia de estar demasiado cansado para disfrutar de las cosas que le gustan en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="135">
+  <si>
+    <t>Menores según frecuencia de estar demasiado cansado/a para disfrutar de las cosas que le gustan en 2023 (Tasa respuesta: 50,16%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -92,400 +92,352 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>2,46%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>71,57%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
   </si>
   <si>
     <t>22,62%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -900,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0081655-D52A-45CA-8575-E702A028763B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC594BC6-A37E-4A7F-95B6-C337C94D43B6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1562,10 +1514,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>132</v>
       </c>
       <c r="D16" s="7">
-        <v>6194</v>
+        <v>94665</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -1577,10 +1529,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="I16" s="7">
-        <v>7323</v>
+        <v>127727</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -1592,10 +1544,10 @@
         <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="N16" s="7">
-        <v>13517</v>
+        <v>222393</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>24</v>
@@ -1613,10 +1565,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D17" s="7">
-        <v>3870</v>
+        <v>32342</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -1628,34 +1580,34 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="I17" s="7">
-        <v>3425</v>
+        <v>38893</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="N17" s="7">
-        <v>7295</v>
+        <v>71235</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1664,49 +1616,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>6541</v>
+        <v>2657</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>5987</v>
+        <v>3102</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>12528</v>
+        <v>5758</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,40 +1667,40 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>28725</v>
+        <v>848</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="7">
+        <v>2</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1605</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>30</v>
-      </c>
-      <c r="I19" s="7">
-        <v>22424</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>51149</v>
+        <v>2453</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>50</v>
@@ -1766,49 +1718,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>118309</v>
+        <v>775</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="7">
-        <v>124</v>
-      </c>
-      <c r="I20" s="7">
-        <v>93813</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1</v>
+      </c>
+      <c r="N20" s="7">
+        <v>775</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M20" s="7">
-        <v>265</v>
-      </c>
-      <c r="N20" s="7">
-        <v>212122</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,102 +1769,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>177</v>
+      </c>
+      <c r="D21" s="7">
+        <v>131287</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="7">
         <v>195</v>
       </c>
-      <c r="D21" s="7">
-        <v>163639</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7">
-        <v>176</v>
-      </c>
       <c r="I21" s="7">
-        <v>132973</v>
+        <v>171327</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N21" s="7">
-        <v>296612</v>
+        <v>302614</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>7</v>
+        <v>219</v>
       </c>
       <c r="D22" s="7">
-        <v>4786</v>
+        <v>156230</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="7">
+        <v>219</v>
+      </c>
+      <c r="I22" s="7">
+        <v>194891</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="7">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7">
-        <v>8123</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>438</v>
+      </c>
+      <c r="N22" s="7">
+        <v>351121</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="M22" s="7">
-        <v>17</v>
-      </c>
-      <c r="N22" s="7">
-        <v>12909</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,49 +1873,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="D23" s="7">
-        <v>1698</v>
+        <v>76503</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="7">
+        <v>63</v>
+      </c>
+      <c r="I23" s="7">
+        <v>64142</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="H23" s="7">
-        <v>5</v>
-      </c>
-      <c r="I23" s="7">
-        <v>4083</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>133</v>
+      </c>
+      <c r="N23" s="7">
+        <v>140645</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="M23" s="7">
-        <v>8</v>
-      </c>
-      <c r="N23" s="7">
-        <v>5782</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,49 +1924,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D24" s="7">
-        <v>18847</v>
+        <v>4052</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="7">
+        <v>8</v>
+      </c>
+      <c r="I24" s="7">
+        <v>6609</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="7">
-        <v>17</v>
-      </c>
-      <c r="I24" s="7">
-        <v>12460</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>15</v>
+      </c>
+      <c r="N24" s="7">
+        <v>10661</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="M24" s="7">
-        <v>36</v>
-      </c>
-      <c r="N24" s="7">
-        <v>31307</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>87</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,49 +1975,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>47186</v>
+        <v>551</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>851</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>2</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1401</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="P25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="H25" s="7">
-        <v>51</v>
-      </c>
-      <c r="I25" s="7">
-        <v>36440</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M25" s="7">
-        <v>105</v>
-      </c>
-      <c r="N25" s="7">
-        <v>83626</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,49 +2026,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>182579</v>
+        <v>629</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H26" s="7">
-        <v>216</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>166359</v>
+        <v>1743</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="M26" s="7">
-        <v>427</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>348938</v>
+        <v>2371</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2125,49 +2077,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D27" s="7">
-        <v>255096</v>
+        <v>237964</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I27" s="7">
-        <v>227465</v>
+        <v>268235</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="N27" s="7">
-        <v>482561</v>
+        <v>506199</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,49 +2130,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>14</v>
+        <v>351</v>
       </c>
       <c r="D28" s="7">
-        <v>10981</v>
+        <v>250895</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="H28" s="7">
-        <v>19</v>
+        <v>365</v>
       </c>
       <c r="I28" s="7">
-        <v>15446</v>
+        <v>322618</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M28" s="7">
-        <v>33</v>
+        <v>716</v>
       </c>
       <c r="N28" s="7">
-        <v>26426</v>
+        <v>573513</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,49 +2181,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="D29" s="7">
-        <v>5568</v>
+        <v>108845</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="H29" s="7">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="I29" s="7">
-        <v>7508</v>
+        <v>103035</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="M29" s="7">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="N29" s="7">
-        <v>13077</v>
+        <v>211879</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,49 +2232,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7">
-        <v>25388</v>
+        <v>6709</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="H30" s="7">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I30" s="7">
-        <v>18447</v>
+        <v>9710</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="M30" s="7">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="N30" s="7">
-        <v>43835</v>
+        <v>16419</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2331,49 +2283,49 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>88</v>
+        <v>2</v>
       </c>
       <c r="D31" s="7">
-        <v>75911</v>
+        <v>1399</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H31" s="7">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="I31" s="7">
-        <v>58864</v>
+        <v>2456</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="M31" s="7">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="N31" s="7">
-        <v>134775</v>
+        <v>3855</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,49 +2334,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>352</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>300887</v>
+        <v>1404</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="H32" s="7">
-        <v>340</v>
+        <v>2</v>
       </c>
       <c r="I32" s="7">
-        <v>260172</v>
+        <v>1743</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>145</v>
+        <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="M32" s="7">
-        <v>692</v>
+        <v>4</v>
       </c>
       <c r="N32" s="7">
-        <v>561059</v>
+        <v>3147</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,54 +2385,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="D33" s="7">
-        <v>418734</v>
+        <v>369251</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="I33" s="7">
-        <v>360438</v>
+        <v>439562</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="N33" s="7">
-        <v>779172</v>
+        <v>808813</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
